--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,1713 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111936876</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>449317.0489210376</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7087520.906595955</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111936800</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>449177.8905366624</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7087530.207590466</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111936790</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>448943.8940418276</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7087698.235520792</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111936786</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>449055.4908092887</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7087729.435905921</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111936877</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>449302.006836799</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7087517.627985355</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111936791</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>449279.9868849564</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7087437.412661138</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111936874</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>449309.3031681653</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7087423.7290034</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111936895</v>
+      </c>
+      <c r="B14" t="n">
+        <v>85715</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>510</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>448924.849606293</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7087773.829047815</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111936873</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>449170.9149442808</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7087507.866619493</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111936802</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>448825.396353531</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7087649.541088912</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111936855</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78579</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>449178.0024977843</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7087509.952929454</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111936872</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>449151.0056780232</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7087530.644260203</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111936856</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78579</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>449235.6140813087</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7087446.93781954</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111936879</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>449280.5263497296</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7087552.317575688</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111936801</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>448837.1356602872</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7087666.519360777</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936876</v>
+        <v>111936791</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449317.0489210376</v>
+        <v>449279.9868849564</v>
       </c>
       <c r="R7" t="n">
-        <v>7087520.906595955</v>
+        <v>7087437.412661138</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936800</v>
+        <v>111936874</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,38 +1388,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449177.8905366624</v>
+        <v>449309.3031681653</v>
       </c>
       <c r="R8" t="n">
-        <v>7087530.207590466</v>
+        <v>7087423.7290034</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,11 +1458,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1493,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936790</v>
+        <v>111936872</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,25 +1496,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448943.8940418276</v>
+        <v>449151.0056780232</v>
       </c>
       <c r="R9" t="n">
-        <v>7087698.235520792</v>
+        <v>7087530.644260203</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1605,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936786</v>
+        <v>111936802</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,34 +1612,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449055.4908092887</v>
+        <v>448825.396353531</v>
       </c>
       <c r="R10" t="n">
-        <v>7087729.435905921</v>
+        <v>7087649.541088912</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1691,6 +1686,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1717,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936877</v>
+        <v>111936855</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,21 +1733,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449302.006836799</v>
+        <v>449178.0024977843</v>
       </c>
       <c r="R11" t="n">
-        <v>7087517.627985355</v>
+        <v>7087509.952929454</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936791</v>
+        <v>111936856</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1841,25 +1841,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449279.9868849564</v>
+        <v>449235.6140813087</v>
       </c>
       <c r="R12" t="n">
-        <v>7087437.412661138</v>
+        <v>7087446.93781954</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936874</v>
+        <v>111936800</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1957,34 +1957,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449309.3031681653</v>
+        <v>449177.8905366624</v>
       </c>
       <c r="R13" t="n">
-        <v>7087423.7290034</v>
+        <v>7087530.207590466</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,6 +2031,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2165,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936873</v>
+        <v>111936801</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2181,34 +2190,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449170.9149442808</v>
+        <v>448837.1356602872</v>
       </c>
       <c r="R15" t="n">
-        <v>7087507.866619493</v>
+        <v>7087666.519360777</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2251,6 +2264,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2277,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936802</v>
+        <v>111936873</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2293,38 +2311,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448825.396353531</v>
+        <v>449170.9149442808</v>
       </c>
       <c r="R16" t="n">
-        <v>7087649.541088912</v>
+        <v>7087507.866619493</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2367,11 +2381,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,10 +2407,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936855</v>
+        <v>111936877</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2414,21 +2423,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2438,10 +2447,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449178.0024977843</v>
+        <v>449302.006836799</v>
       </c>
       <c r="R17" t="n">
-        <v>7087509.952929454</v>
+        <v>7087517.627985355</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,7 +2519,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936872</v>
+        <v>111936876</v>
       </c>
       <c r="B18" t="n">
         <v>89423</v>
@@ -2550,10 +2559,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449151.0056780232</v>
+        <v>449317.0489210376</v>
       </c>
       <c r="R18" t="n">
-        <v>7087530.644260203</v>
+        <v>7087520.906595955</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2622,10 +2631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936856</v>
+        <v>111936786</v>
       </c>
       <c r="B19" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2638,21 +2647,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2662,10 +2671,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449235.6140813087</v>
+        <v>449055.4908092887</v>
       </c>
       <c r="R19" t="n">
-        <v>7087446.93781954</v>
+        <v>7087729.435905921</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2734,10 +2743,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936879</v>
+        <v>111936790</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2746,25 +2755,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2774,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449280.5263497296</v>
+        <v>448943.8940418276</v>
       </c>
       <c r="R20" t="n">
-        <v>7087552.317575688</v>
+        <v>7087698.235520792</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2846,10 +2855,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936801</v>
+        <v>111936879</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,38 +2871,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448837.1356602872</v>
+        <v>449280.5263497296</v>
       </c>
       <c r="R21" t="n">
-        <v>7087666.519360777</v>
+        <v>7087552.317575688</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2936,11 +2941,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936791</v>
+        <v>111936855</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449279.9868849564</v>
+        <v>449178.0024977843</v>
       </c>
       <c r="R7" t="n">
-        <v>7087437.412661138</v>
+        <v>7087509.952929454</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936874</v>
+        <v>111936790</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,25 +1384,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449309.3031681653</v>
+        <v>448943.8940418276</v>
       </c>
       <c r="R8" t="n">
-        <v>7087423.7290034</v>
+        <v>7087698.235520792</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936872</v>
+        <v>111936856</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,21 +1500,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449151.0056780232</v>
+        <v>449235.6140813087</v>
       </c>
       <c r="R9" t="n">
-        <v>7087530.644260203</v>
+        <v>7087446.93781954</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936802</v>
+        <v>111936786</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,38 +1612,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448825.396353531</v>
+        <v>449055.4908092887</v>
       </c>
       <c r="R10" t="n">
-        <v>7087649.541088912</v>
+        <v>7087729.435905921</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1686,11 +1682,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1717,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936855</v>
+        <v>111936802</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,34 +1724,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449178.0024977843</v>
+        <v>448825.396353531</v>
       </c>
       <c r="R11" t="n">
-        <v>7087509.952929454</v>
+        <v>7087649.541088912</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1803,6 +1798,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1829,10 +1829,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936856</v>
+        <v>111936874</v>
       </c>
       <c r="B12" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,21 +1845,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449235.6140813087</v>
+        <v>449309.3031681653</v>
       </c>
       <c r="R12" t="n">
-        <v>7087446.93781954</v>
+        <v>7087423.7290034</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936800</v>
+        <v>111936877</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1957,38 +1957,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449177.8905366624</v>
+        <v>449302.006836799</v>
       </c>
       <c r="R13" t="n">
-        <v>7087530.207590466</v>
+        <v>7087517.627985355</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2031,11 +2027,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2062,10 +2053,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936895</v>
+        <v>111936876</v>
       </c>
       <c r="B14" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2078,21 +2069,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2102,10 +2093,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448924.849606293</v>
+        <v>449317.0489210376</v>
       </c>
       <c r="R14" t="n">
-        <v>7087773.829047815</v>
+        <v>7087520.906595955</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2174,7 +2165,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936801</v>
+        <v>111936800</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2218,10 +2209,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448837.1356602872</v>
+        <v>449177.8905366624</v>
       </c>
       <c r="R15" t="n">
-        <v>7087666.519360777</v>
+        <v>7087530.207590466</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,7 +2286,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936873</v>
+        <v>111936879</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2335,10 +2326,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449170.9149442808</v>
+        <v>449280.5263497296</v>
       </c>
       <c r="R16" t="n">
-        <v>7087507.866619493</v>
+        <v>7087552.317575688</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936877</v>
+        <v>111936791</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2419,25 +2410,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2447,10 +2438,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449302.006836799</v>
+        <v>449279.9868849564</v>
       </c>
       <c r="R17" t="n">
-        <v>7087517.627985355</v>
+        <v>7087437.412661138</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2519,10 +2510,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936876</v>
+        <v>111936801</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2535,34 +2526,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449317.0489210376</v>
+        <v>448837.1356602872</v>
       </c>
       <c r="R18" t="n">
-        <v>7087520.906595955</v>
+        <v>7087666.519360777</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2605,6 +2600,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2631,10 +2631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936786</v>
+        <v>111936873</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2647,21 +2647,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449055.4908092887</v>
+        <v>449170.9149442808</v>
       </c>
       <c r="R19" t="n">
-        <v>7087729.435905921</v>
+        <v>7087507.866619493</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936790</v>
+        <v>111936872</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448943.8940418276</v>
+        <v>449151.0056780232</v>
       </c>
       <c r="R20" t="n">
-        <v>7087698.235520792</v>
+        <v>7087530.644260203</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936879</v>
+        <v>111936895</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>85715</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2871,21 +2871,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449280.5263497296</v>
+        <v>448924.849606293</v>
       </c>
       <c r="R21" t="n">
-        <v>7087552.317575688</v>
+        <v>7087773.829047815</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936855</v>
+        <v>111936800</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,34 +1276,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449178.0024977843</v>
+        <v>449177.8905366624</v>
       </c>
       <c r="R7" t="n">
-        <v>7087509.952929454</v>
+        <v>7087530.207590466</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,6 +1350,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936790</v>
+        <v>111936801</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,38 +1393,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448943.8940418276</v>
+        <v>448837.1356602872</v>
       </c>
       <c r="R8" t="n">
-        <v>7087698.235520792</v>
+        <v>7087666.519360777</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1458,6 +1471,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936856</v>
+        <v>111936876</v>
       </c>
       <c r="B9" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,21 +1518,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449235.6140813087</v>
+        <v>449317.0489210376</v>
       </c>
       <c r="R9" t="n">
-        <v>7087446.93781954</v>
+        <v>7087520.906595955</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1596,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936786</v>
+        <v>111936856</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,21 +1630,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1636,10 +1654,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449055.4908092887</v>
+        <v>449235.6140813087</v>
       </c>
       <c r="R10" t="n">
-        <v>7087729.435905921</v>
+        <v>7087446.93781954</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1708,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936802</v>
+        <v>111936786</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,38 +1742,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448825.396353531</v>
+        <v>449055.4908092887</v>
       </c>
       <c r="R11" t="n">
-        <v>7087649.541088912</v>
+        <v>7087729.435905921</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1798,11 +1812,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1829,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936874</v>
+        <v>111936802</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,34 +1854,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449309.3031681653</v>
+        <v>448825.396353531</v>
       </c>
       <c r="R12" t="n">
-        <v>7087423.7290034</v>
+        <v>7087649.541088912</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,6 +1928,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2053,7 +2071,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936876</v>
+        <v>111936874</v>
       </c>
       <c r="B14" t="n">
         <v>89423</v>
@@ -2093,10 +2111,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449317.0489210376</v>
+        <v>449309.3031681653</v>
       </c>
       <c r="R14" t="n">
-        <v>7087520.906595955</v>
+        <v>7087423.7290034</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2165,10 +2183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936800</v>
+        <v>111936790</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2177,42 +2195,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449177.8905366624</v>
+        <v>448943.8940418276</v>
       </c>
       <c r="R15" t="n">
-        <v>7087530.207590466</v>
+        <v>7087698.235520792</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2255,11 +2269,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2286,7 +2295,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936879</v>
+        <v>111936872</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2326,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449280.5263497296</v>
+        <v>449151.0056780232</v>
       </c>
       <c r="R16" t="n">
-        <v>7087552.317575688</v>
+        <v>7087530.644260203</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2398,10 +2407,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936791</v>
+        <v>111936895</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,25 +2419,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2438,10 +2447,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449279.9868849564</v>
+        <v>448924.849606293</v>
       </c>
       <c r="R17" t="n">
-        <v>7087437.412661138</v>
+        <v>7087773.829047815</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,10 +2519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936801</v>
+        <v>111936855</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2526,38 +2535,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448837.1356602872</v>
+        <v>449178.0024977843</v>
       </c>
       <c r="R18" t="n">
-        <v>7087666.519360777</v>
+        <v>7087509.952929454</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2600,11 +2605,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2631,7 +2631,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936873</v>
+        <v>111936879</v>
       </c>
       <c r="B19" t="n">
         <v>89423</v>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449170.9149442808</v>
+        <v>449280.5263497296</v>
       </c>
       <c r="R19" t="n">
-        <v>7087507.866619493</v>
+        <v>7087552.317575688</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936872</v>
+        <v>111936873</v>
       </c>
       <c r="B20" t="n">
         <v>89423</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449151.0056780232</v>
+        <v>449170.9149442808</v>
       </c>
       <c r="R20" t="n">
-        <v>7087530.644260203</v>
+        <v>7087507.866619493</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936895</v>
+        <v>111936791</v>
       </c>
       <c r="B21" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2867,25 +2867,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448924.849606293</v>
+        <v>449279.9868849564</v>
       </c>
       <c r="R21" t="n">
-        <v>7087773.829047815</v>
+        <v>7087437.412661138</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936800</v>
+        <v>111936855</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,38 +1276,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449177.8905366624</v>
+        <v>449178.0024977843</v>
       </c>
       <c r="R7" t="n">
-        <v>7087530.207590466</v>
+        <v>7087509.952929454</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,11 +1346,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1381,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936801</v>
+        <v>111936872</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,38 +1388,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448837.1356602872</v>
+        <v>449151.0056780232</v>
       </c>
       <c r="R8" t="n">
-        <v>7087666.519360777</v>
+        <v>7087530.644260203</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,11 +1458,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1502,7 +1484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936876</v>
+        <v>111936873</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1542,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449317.0489210376</v>
+        <v>449170.9149442808</v>
       </c>
       <c r="R9" t="n">
-        <v>7087520.906595955</v>
+        <v>7087507.866619493</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1614,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936856</v>
+        <v>111936801</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,34 +1612,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449235.6140813087</v>
+        <v>448837.1356602872</v>
       </c>
       <c r="R10" t="n">
-        <v>7087446.93781954</v>
+        <v>7087666.519360777</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1700,6 +1686,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1838,10 +1829,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936802</v>
+        <v>111936876</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1854,38 +1845,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448825.396353531</v>
+        <v>449317.0489210376</v>
       </c>
       <c r="R12" t="n">
-        <v>7087649.541088912</v>
+        <v>7087520.906595955</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1928,11 +1915,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1959,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936877</v>
+        <v>111936791</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1999,10 +1981,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449302.006836799</v>
+        <v>449279.9868849564</v>
       </c>
       <c r="R13" t="n">
-        <v>7087517.627985355</v>
+        <v>7087437.412661138</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2071,7 +2053,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936874</v>
+        <v>111936877</v>
       </c>
       <c r="B14" t="n">
         <v>89423</v>
@@ -2111,10 +2093,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449309.3031681653</v>
+        <v>449302.006836799</v>
       </c>
       <c r="R14" t="n">
-        <v>7087423.7290034</v>
+        <v>7087517.627985355</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2183,10 +2165,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936790</v>
+        <v>111936856</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,25 +2177,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2223,10 +2205,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448943.8940418276</v>
+        <v>449235.6140813087</v>
       </c>
       <c r="R15" t="n">
-        <v>7087698.235520792</v>
+        <v>7087446.93781954</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,7 +2277,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936872</v>
+        <v>111936879</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2335,10 +2317,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449151.0056780232</v>
+        <v>449280.5263497296</v>
       </c>
       <c r="R16" t="n">
-        <v>7087530.644260203</v>
+        <v>7087552.317575688</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,10 +2389,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936895</v>
+        <v>111936790</v>
       </c>
       <c r="B17" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2419,25 +2401,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2447,10 +2429,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448924.849606293</v>
+        <v>448943.8940418276</v>
       </c>
       <c r="R17" t="n">
-        <v>7087773.829047815</v>
+        <v>7087698.235520792</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2519,10 +2501,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936855</v>
+        <v>111936802</v>
       </c>
       <c r="B18" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2535,34 +2517,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449178.0024977843</v>
+        <v>448825.396353531</v>
       </c>
       <c r="R18" t="n">
-        <v>7087509.952929454</v>
+        <v>7087649.541088912</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2605,6 +2591,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2631,10 +2622,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936879</v>
+        <v>111936895</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>85715</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2647,21 +2638,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2671,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449280.5263497296</v>
+        <v>448924.849606293</v>
       </c>
       <c r="R19" t="n">
-        <v>7087552.317575688</v>
+        <v>7087773.829047815</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2743,7 +2734,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936873</v>
+        <v>111936874</v>
       </c>
       <c r="B20" t="n">
         <v>89423</v>
@@ -2783,10 +2774,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449170.9149442808</v>
+        <v>449309.3031681653</v>
       </c>
       <c r="R20" t="n">
-        <v>7087507.866619493</v>
+        <v>7087423.7290034</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2855,10 +2846,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936791</v>
+        <v>111936800</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2867,38 +2858,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449279.9868849564</v>
+        <v>449177.8905366624</v>
       </c>
       <c r="R21" t="n">
-        <v>7087437.412661138</v>
+        <v>7087530.207590466</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2941,6 +2936,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936855</v>
+        <v>111936879</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449178.0024977843</v>
+        <v>449281</v>
       </c>
       <c r="R7" t="n">
-        <v>7087509.952929454</v>
+        <v>7087552</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1333,19 +1333,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936872</v>
+        <v>111936800</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,34 +1378,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449151.0056780232</v>
+        <v>449178</v>
       </c>
       <c r="R8" t="n">
-        <v>7087530.644260203</v>
+        <v>7087530</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1445,19 +1439,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936873</v>
+        <v>111936791</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1485,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449170.9149442808</v>
+        <v>449280</v>
       </c>
       <c r="R9" t="n">
-        <v>7087507.866619493</v>
+        <v>7087437</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1557,19 +1546,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1596,10 +1575,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936801</v>
+        <v>111936872</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,38 +1591,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448837.1356602872</v>
+        <v>449151</v>
       </c>
       <c r="R10" t="n">
-        <v>7087666.519360777</v>
+        <v>7087531</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1673,24 +1648,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1717,10 +1677,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936786</v>
+        <v>111936790</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1729,25 +1689,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1757,10 +1717,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449055.4908092887</v>
+        <v>448944</v>
       </c>
       <c r="R11" t="n">
-        <v>7087729.435905921</v>
+        <v>7087698</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1790,19 +1750,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1829,10 +1779,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936876</v>
+        <v>111936802</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,34 +1795,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449317.0489210376</v>
+        <v>448825</v>
       </c>
       <c r="R12" t="n">
-        <v>7087520.906595955</v>
+        <v>7087650</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1902,19 +1856,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1941,10 +1890,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936791</v>
+        <v>111936876</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,25 +1902,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1981,10 +1930,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449279.9868849564</v>
+        <v>449317</v>
       </c>
       <c r="R13" t="n">
-        <v>7087437.412661138</v>
+        <v>7087521</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2014,19 +1963,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2053,7 +1992,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936877</v>
+        <v>111936874</v>
       </c>
       <c r="B14" t="n">
         <v>89423</v>
@@ -2093,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449302.006836799</v>
+        <v>449309</v>
       </c>
       <c r="R14" t="n">
-        <v>7087517.627985355</v>
+        <v>7087424</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2126,19 +2065,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2205,10 +2134,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449235.6140813087</v>
+        <v>449236</v>
       </c>
       <c r="R15" t="n">
-        <v>7087446.93781954</v>
+        <v>7087447</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2238,19 +2167,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2277,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936879</v>
+        <v>111936786</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2293,21 +2212,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2317,10 +2236,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449280.5263497296</v>
+        <v>449055</v>
       </c>
       <c r="R16" t="n">
-        <v>7087552.317575688</v>
+        <v>7087729</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2350,19 +2269,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,10 +2298,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936790</v>
+        <v>111936877</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2401,25 +2310,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2429,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448943.8940418276</v>
+        <v>449302</v>
       </c>
       <c r="R17" t="n">
-        <v>7087698.235520792</v>
+        <v>7087518</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2462,19 +2371,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2501,10 +2400,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936802</v>
+        <v>111936873</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2517,38 +2416,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448825.396353531</v>
+        <v>449171</v>
       </c>
       <c r="R18" t="n">
-        <v>7087649.541088912</v>
+        <v>7087508</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2578,24 +2473,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2662,10 +2542,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448924.849606293</v>
+        <v>448925</v>
       </c>
       <c r="R19" t="n">
-        <v>7087773.829047815</v>
+        <v>7087774</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2695,19 +2575,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2734,10 +2604,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936874</v>
+        <v>111936801</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2750,34 +2620,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449309.3031681653</v>
+        <v>448837</v>
       </c>
       <c r="R20" t="n">
-        <v>7087423.7290034</v>
+        <v>7087667</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2807,19 +2681,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2846,10 +2715,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936800</v>
+        <v>111936855</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,38 +2731,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449177.8905366624</v>
+        <v>449178</v>
       </c>
       <c r="R21" t="n">
-        <v>7087530.207590466</v>
+        <v>7087510</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2923,24 +2788,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936879</v>
+        <v>111936876</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449281</v>
+        <v>449317</v>
       </c>
       <c r="R7" t="n">
-        <v>7087552</v>
+        <v>7087521</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936800</v>
+        <v>111936872</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,38 +1378,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449178</v>
+        <v>449151</v>
       </c>
       <c r="R8" t="n">
-        <v>7087530</v>
+        <v>7087531</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1442,11 +1438,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936791</v>
+        <v>111936800</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,38 +1476,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449280</v>
+        <v>449178</v>
       </c>
       <c r="R9" t="n">
-        <v>7087437</v>
+        <v>7087530</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1549,6 +1544,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1575,10 +1575,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936872</v>
+        <v>111936855</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>78700</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1591,21 +1591,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449151</v>
+        <v>449178</v>
       </c>
       <c r="R10" t="n">
-        <v>7087531</v>
+        <v>7087510</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936790</v>
+        <v>111936802</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1689,38 +1689,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448944</v>
+        <v>448825</v>
       </c>
       <c r="R11" t="n">
-        <v>7087698</v>
+        <v>7087650</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1753,6 +1757,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1779,10 +1788,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936802</v>
+        <v>111936873</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1795,38 +1804,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448825</v>
+        <v>449171</v>
       </c>
       <c r="R12" t="n">
-        <v>7087650</v>
+        <v>7087508</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1859,11 +1864,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936876</v>
+        <v>111936877</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449317</v>
+        <v>449302</v>
       </c>
       <c r="R13" t="n">
-        <v>7087521</v>
+        <v>7087518</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936874</v>
+        <v>111936786</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>89539</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2008,21 +2008,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449309</v>
+        <v>449055</v>
       </c>
       <c r="R14" t="n">
-        <v>7087424</v>
+        <v>7087729</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2097,7 +2097,7 @@
         <v>111936856</v>
       </c>
       <c r="B15" t="n">
-        <v>78579</v>
+        <v>78700</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936786</v>
+        <v>111936895</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>85836</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449055</v>
+        <v>448925</v>
       </c>
       <c r="R16" t="n">
-        <v>7087729</v>
+        <v>7087774</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936877</v>
+        <v>111936791</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>90221</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2310,25 +2310,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449302</v>
+        <v>449280</v>
       </c>
       <c r="R17" t="n">
-        <v>7087518</v>
+        <v>7087437</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936873</v>
+        <v>111936801</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2416,34 +2416,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449171</v>
+        <v>448837</v>
       </c>
       <c r="R18" t="n">
-        <v>7087508</v>
+        <v>7087667</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2476,6 +2480,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2502,10 +2511,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936895</v>
+        <v>111936874</v>
       </c>
       <c r="B19" t="n">
-        <v>85715</v>
+        <v>89557</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2518,21 +2527,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2542,10 +2551,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448925</v>
+        <v>449309</v>
       </c>
       <c r="R19" t="n">
-        <v>7087774</v>
+        <v>7087424</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2604,10 +2613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936801</v>
+        <v>111936790</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90221</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2616,42 +2625,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448837</v>
+        <v>448944</v>
       </c>
       <c r="R20" t="n">
-        <v>7087667</v>
+        <v>7087698</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2684,11 +2689,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2715,10 +2715,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936855</v>
+        <v>111936879</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>89557</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2731,21 +2731,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449178</v>
+        <v>449281</v>
       </c>
       <c r="R21" t="n">
-        <v>7087510</v>
+        <v>7087552</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936876</v>
+        <v>111936855</v>
       </c>
       <c r="B7" t="n">
-        <v>89557</v>
+        <v>78714</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449317</v>
+        <v>449178</v>
       </c>
       <c r="R7" t="n">
-        <v>7087521</v>
+        <v>7087510</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936872</v>
+        <v>111936877</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449151</v>
+        <v>449302</v>
       </c>
       <c r="R8" t="n">
-        <v>7087531</v>
+        <v>7087518</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936800</v>
+        <v>111936802</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449178</v>
+        <v>448825</v>
       </c>
       <c r="R9" t="n">
-        <v>7087530</v>
+        <v>7087650</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936855</v>
+        <v>111936790</v>
       </c>
       <c r="B10" t="n">
-        <v>78700</v>
+        <v>90235</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1587,25 +1587,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449178</v>
+        <v>448944</v>
       </c>
       <c r="R10" t="n">
-        <v>7087510</v>
+        <v>7087698</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936802</v>
+        <v>111936800</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448825</v>
+        <v>449178</v>
       </c>
       <c r="R11" t="n">
-        <v>7087650</v>
+        <v>7087530</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936873</v>
+        <v>111936856</v>
       </c>
       <c r="B12" t="n">
-        <v>89557</v>
+        <v>78714</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1804,21 +1804,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449171</v>
+        <v>449236</v>
       </c>
       <c r="R12" t="n">
-        <v>7087508</v>
+        <v>7087447</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936877</v>
+        <v>111936895</v>
       </c>
       <c r="B13" t="n">
-        <v>89557</v>
+        <v>85850</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449302</v>
+        <v>448925</v>
       </c>
       <c r="R13" t="n">
-        <v>7087518</v>
+        <v>7087774</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936786</v>
+        <v>111936876</v>
       </c>
       <c r="B14" t="n">
-        <v>89539</v>
+        <v>89571</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2008,21 +2008,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449055</v>
+        <v>449317</v>
       </c>
       <c r="R14" t="n">
-        <v>7087729</v>
+        <v>7087521</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936856</v>
+        <v>111936786</v>
       </c>
       <c r="B15" t="n">
-        <v>78700</v>
+        <v>89553</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2110,21 +2110,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449236</v>
+        <v>449055</v>
       </c>
       <c r="R15" t="n">
-        <v>7087447</v>
+        <v>7087729</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936895</v>
+        <v>111936879</v>
       </c>
       <c r="B16" t="n">
-        <v>85836</v>
+        <v>89571</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448925</v>
+        <v>449281</v>
       </c>
       <c r="R16" t="n">
-        <v>7087774</v>
+        <v>7087552</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936791</v>
+        <v>111936801</v>
       </c>
       <c r="B17" t="n">
-        <v>90221</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2310,38 +2310,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449280</v>
+        <v>448837</v>
       </c>
       <c r="R17" t="n">
-        <v>7087437</v>
+        <v>7087667</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2374,6 +2378,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2400,10 +2409,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936801</v>
+        <v>111936873</v>
       </c>
       <c r="B18" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2416,38 +2425,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448837</v>
+        <v>449171</v>
       </c>
       <c r="R18" t="n">
-        <v>7087667</v>
+        <v>7087508</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,11 +2485,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2511,10 +2511,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936874</v>
+        <v>111936791</v>
       </c>
       <c r="B19" t="n">
-        <v>89557</v>
+        <v>90235</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2523,25 +2523,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449309</v>
+        <v>449280</v>
       </c>
       <c r="R19" t="n">
-        <v>7087424</v>
+        <v>7087437</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936790</v>
+        <v>111936874</v>
       </c>
       <c r="B20" t="n">
-        <v>90221</v>
+        <v>89571</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2625,25 +2625,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448944</v>
+        <v>449309</v>
       </c>
       <c r="R20" t="n">
-        <v>7087698</v>
+        <v>7087424</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936879</v>
+        <v>111936872</v>
       </c>
       <c r="B21" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449281</v>
+        <v>449151</v>
       </c>
       <c r="R21" t="n">
-        <v>7087552</v>
+        <v>7087531</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 11089-2021.xlsx
+++ b/artfynd/A 11089-2021.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936855</v>
+        <v>111936791</v>
       </c>
       <c r="B7" t="n">
-        <v>78714</v>
+        <v>90235</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449178</v>
+        <v>449280</v>
       </c>
       <c r="R7" t="n">
-        <v>7087510</v>
+        <v>7087437</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936802</v>
+        <v>111936872</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,38 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448825</v>
+        <v>449151</v>
       </c>
       <c r="R9" t="n">
-        <v>7087650</v>
+        <v>7087531</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1544,11 +1540,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1575,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936790</v>
+        <v>111936879</v>
       </c>
       <c r="B10" t="n">
-        <v>90235</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1587,25 +1578,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1615,10 +1606,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448944</v>
+        <v>449281</v>
       </c>
       <c r="R10" t="n">
-        <v>7087698</v>
+        <v>7087552</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1677,7 +1668,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936800</v>
+        <v>111936802</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1721,10 +1712,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449178</v>
+        <v>448825</v>
       </c>
       <c r="R11" t="n">
-        <v>7087530</v>
+        <v>7087650</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,10 +1779,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936856</v>
+        <v>111936790</v>
       </c>
       <c r="B12" t="n">
-        <v>78714</v>
+        <v>90235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1800,25 +1791,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1828,10 +1819,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449236</v>
+        <v>448944</v>
       </c>
       <c r="R12" t="n">
-        <v>7087447</v>
+        <v>7087698</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1890,10 +1881,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936895</v>
+        <v>111936800</v>
       </c>
       <c r="B13" t="n">
-        <v>85850</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1906,34 +1897,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448925</v>
+        <v>449178</v>
       </c>
       <c r="R13" t="n">
-        <v>7087774</v>
+        <v>7087530</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1966,6 +1961,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1992,10 +1992,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936876</v>
+        <v>111936856</v>
       </c>
       <c r="B14" t="n">
-        <v>89571</v>
+        <v>78714</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2008,21 +2008,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449317</v>
+        <v>449236</v>
       </c>
       <c r="R14" t="n">
-        <v>7087521</v>
+        <v>7087447</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936786</v>
+        <v>111936801</v>
       </c>
       <c r="B15" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2110,34 +2110,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449055</v>
+        <v>448837</v>
       </c>
       <c r="R15" t="n">
-        <v>7087729</v>
+        <v>7087667</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2170,6 +2174,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,7 +2205,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936879</v>
+        <v>111936873</v>
       </c>
       <c r="B16" t="n">
         <v>89571</v>
@@ -2236,10 +2245,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449281</v>
+        <v>449171</v>
       </c>
       <c r="R16" t="n">
-        <v>7087552</v>
+        <v>7087508</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2298,10 +2307,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936801</v>
+        <v>111936895</v>
       </c>
       <c r="B17" t="n">
-        <v>56430</v>
+        <v>85850</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2314,38 +2323,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448837</v>
+        <v>448925</v>
       </c>
       <c r="R17" t="n">
-        <v>7087667</v>
+        <v>7087774</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2378,11 +2383,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2409,7 +2409,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936873</v>
+        <v>111936876</v>
       </c>
       <c r="B18" t="n">
         <v>89571</v>
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449171</v>
+        <v>449317</v>
       </c>
       <c r="R18" t="n">
-        <v>7087508</v>
+        <v>7087521</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936791</v>
+        <v>111936874</v>
       </c>
       <c r="B19" t="n">
-        <v>90235</v>
+        <v>89571</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2523,25 +2523,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449280</v>
+        <v>449309</v>
       </c>
       <c r="R19" t="n">
-        <v>7087437</v>
+        <v>7087424</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936874</v>
+        <v>111936855</v>
       </c>
       <c r="B20" t="n">
-        <v>89571</v>
+        <v>78714</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2629,21 +2629,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449309</v>
+        <v>449178</v>
       </c>
       <c r="R20" t="n">
-        <v>7087424</v>
+        <v>7087510</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936872</v>
+        <v>111936786</v>
       </c>
       <c r="B21" t="n">
-        <v>89571</v>
+        <v>89553</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2731,21 +2731,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449151</v>
+        <v>449055</v>
       </c>
       <c r="R21" t="n">
-        <v>7087531</v>
+        <v>7087729</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
